--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value472.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value472.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8760897025444183</v>
+        <v>1.0373295545578</v>
       </c>
       <c r="B1">
-        <v>1.156949877949231</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.843976528112466</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4.846184199494976</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>2.186422527240591</v>
+        <v>1.164854645729065</v>
       </c>
     </row>
   </sheetData>
